--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3238.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3238.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.522697892095148</v>
+        <v>1.280412554740906</v>
       </c>
       <c r="B1">
-        <v>2.632255257211574</v>
+        <v>1.202524185180664</v>
       </c>
       <c r="C1">
-        <v>3.158817871238116</v>
+        <v>1.028637528419495</v>
       </c>
       <c r="D1">
-        <v>3.749247219260764</v>
+        <v>1.086861729621887</v>
       </c>
       <c r="E1">
-        <v>1.655133273538855</v>
+        <v>1.005748271942139</v>
       </c>
     </row>
   </sheetData>
